--- a/data/strategies/平安场外策略结果.xlsx
+++ b/data/strategies/平安场外策略结果.xlsx
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
+  <si>
+    <t>广发中证全指可选消费ETF联接A</t>
+  </si>
   <si>
     <t>华夏国证半导体芯片ETF联接A</t>
   </si>
@@ -26,9 +29,6 @@
     <t>富国中证高端制造指数增强</t>
   </si>
   <si>
-    <t>广发中证全指可选消费ETF联接A</t>
-  </si>
-  <si>
     <t>制造+消费</t>
   </si>
   <si>
@@ -59,73 +59,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>7.92%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>11.45%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>20.47%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>19.74%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>23.25%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>9.75%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>15.42%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>14.86%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>24.08%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>20.49%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>23.26%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -134,69 +131,69 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>001133.OF</t>
+  </si>
+  <si>
     <t>008887.OF</t>
   </si>
   <si>
     <t>161037.OF</t>
   </si>
   <si>
-    <t>001133.OF</t>
-  </si>
-  <si>
-    <t>16.66%</t>
-  </si>
-  <si>
-    <t>7.56%</t>
-  </si>
-  <si>
-    <t>-0.86%</t>
-  </si>
-  <si>
-    <t>36.63%</t>
-  </si>
-  <si>
-    <t>16.68%</t>
-  </si>
-  <si>
-    <t>5.43%</t>
-  </si>
-  <si>
-    <t>21.95%</t>
-  </si>
-  <si>
-    <t>10.15%</t>
-  </si>
-  <si>
-    <t>1.93%</t>
-  </si>
-  <si>
-    <t>36.29%</t>
-  </si>
-  <si>
-    <t>18.63%</t>
-  </si>
-  <si>
-    <t>11.09%</t>
-  </si>
-  <si>
-    <t>30.64%</t>
-  </si>
-  <si>
-    <t>19.61%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>33.26%</t>
+    <t>-1.25%</t>
+  </si>
+  <si>
+    <t>19.52%</t>
+  </si>
+  <si>
+    <t>10.47%</t>
+  </si>
+  <si>
+    <t>0.31%</t>
+  </si>
+  <si>
+    <t>31.33%</t>
+  </si>
+  <si>
+    <t>15.05%</t>
+  </si>
+  <si>
+    <t>-0.08%</t>
+  </si>
+  <si>
+    <t>31.01%</t>
+  </si>
+  <si>
+    <t>14.10%</t>
+  </si>
+  <si>
+    <t>14.08%</t>
+  </si>
+  <si>
+    <t>42.92%</t>
+  </si>
+  <si>
+    <t>21.06%</t>
+  </si>
+  <si>
+    <t>14.78%</t>
+  </si>
+  <si>
+    <t>32.52%</t>
+  </si>
+  <si>
+    <t>20.55%</t>
+  </si>
+  <si>
+    <t>18.64%</t>
+  </si>
+  <si>
+    <t>34.08%</t>
   </si>
   <si>
     <t>23.92%</t>
   </si>
   <si>
-    <t>18.91%</t>
-  </si>
-  <si>
     <t>股票代码</t>
   </si>
   <si>
@@ -209,7 +206,7 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>603501.SH</t>
@@ -218,10 +215,16 @@
     <t>300782.SZ</t>
   </si>
   <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
     <t>000333.SZ</t>
   </si>
   <si>
-    <t>603986.SH</t>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
   </si>
   <si>
     <t>601888.SH</t>
@@ -236,97 +239,94 @@
     <t>000651.SZ</t>
   </si>
   <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>002594.SZ</t>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>002371.SZ</t>
   </si>
   <si>
     <t>600745.SH</t>
   </si>
   <si>
-    <t>002371.SZ</t>
-  </si>
-  <si>
-    <t>300750.SZ</t>
+    <t>600460.SH</t>
   </si>
   <si>
     <t>600584.SH</t>
   </si>
   <si>
-    <t>600460.SH</t>
+    <t>300661.SZ</t>
+  </si>
+  <si>
+    <t>002185.SZ</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>300316.SZ</t>
   </si>
   <si>
     <t>603160.SH</t>
   </si>
   <si>
-    <t>002185.SZ</t>
-  </si>
-  <si>
-    <t>300661.SZ</t>
-  </si>
-  <si>
-    <t>300316.SZ</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>4.98%</t>
-  </si>
-  <si>
-    <t>3.24%</t>
-  </si>
-  <si>
-    <t>2.99%</t>
-  </si>
-  <si>
-    <t>2.96%</t>
-  </si>
-  <si>
-    <t>2.92%</t>
-  </si>
-  <si>
-    <t>2.84%</t>
-  </si>
-  <si>
-    <t>2.61%</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>2.25%</t>
-  </si>
-  <si>
-    <t>2.01%</t>
-  </si>
-  <si>
-    <t>1.92%</t>
-  </si>
-  <si>
-    <t>1.83%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>1.21%</t>
-  </si>
-  <si>
-    <t>1.13%</t>
-  </si>
-  <si>
-    <t>1.12%</t>
+    <t>369.75%</t>
+  </si>
+  <si>
+    <t>365.00%</t>
+  </si>
+  <si>
+    <t>328.22%</t>
+  </si>
+  <si>
+    <t>307.36%</t>
+  </si>
+  <si>
+    <t>282.10%</t>
+  </si>
+  <si>
+    <t>268.16%</t>
+  </si>
+  <si>
+    <t>260.50%</t>
+  </si>
+  <si>
+    <t>260.09%</t>
+  </si>
+  <si>
+    <t>226.01%</t>
+  </si>
+  <si>
+    <t>222.95%</t>
+  </si>
+  <si>
+    <t>216.22%</t>
+  </si>
+  <si>
+    <t>214.63%</t>
+  </si>
+  <si>
+    <t>208.65%</t>
+  </si>
+  <si>
+    <t>157.86%</t>
+  </si>
+  <si>
+    <t>145.29%</t>
+  </si>
+  <si>
+    <t>122.04%</t>
+  </si>
+  <si>
+    <t>112.68%</t>
+  </si>
+  <si>
+    <t>111.28%</t>
+  </si>
+  <si>
+    <t>102.98%</t>
+  </si>
+  <si>
+    <t>99.86%</t>
   </si>
   <si>
     <t>韦尔股份</t>
@@ -335,10 +335,16 @@
     <t>卓胜微</t>
   </si>
   <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
     <t>美的集团</t>
   </si>
   <si>
-    <t>兆易创新</t>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
   </si>
   <si>
     <t>中国中免</t>
@@ -353,52 +359,52 @@
     <t>格力电器</t>
   </si>
   <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>北方华创</t>
   </si>
   <si>
     <t>闻泰科技</t>
   </si>
   <si>
-    <t>北方华创</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
+    <t>士兰微</t>
   </si>
   <si>
     <t>长电科技</t>
   </si>
   <si>
-    <t>士兰微</t>
+    <t>圣邦股份</t>
+  </si>
+  <si>
+    <t>华天科技</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>晶盛机电</t>
   </si>
   <si>
     <t>汇顶科技</t>
   </si>
   <si>
-    <t>华天科技</t>
-  </si>
-  <si>
-    <t>圣邦股份</t>
-  </si>
-  <si>
-    <t>晶盛机电</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
     <t>CMOS图像传感器产品</t>
   </si>
   <si>
     <t>射频开关</t>
   </si>
   <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
     <t>暖通空调</t>
   </si>
   <si>
-    <t>存储芯片销售</t>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>汽车</t>
   </si>
   <si>
     <t>商品贸易-免税商品</t>
@@ -413,97 +419,94 @@
     <t>空调</t>
   </si>
   <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
-    <t>汽车</t>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>电子工艺装备</t>
   </si>
   <si>
     <t>手机及配件</t>
   </si>
   <si>
-    <t>电子工艺装备</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
+    <t>器件</t>
   </si>
   <si>
     <t>芯片封测</t>
   </si>
   <si>
-    <t>器件</t>
+    <t>电源管理产品</t>
+  </si>
+  <si>
+    <t>集成电路产品</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>晶体硅生长设备</t>
   </si>
   <si>
     <t>指纹识别芯片</t>
   </si>
   <si>
-    <t>集成电路产品</t>
-  </si>
-  <si>
-    <t>电源管理产品</t>
-  </si>
-  <si>
-    <t>晶体硅生长设备</t>
-  </si>
-  <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>60.36%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>28.48%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>17.00%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>-4.98%</t>
-  </si>
-  <si>
-    <t>55.66%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>-9.24%</t>
-  </si>
-  <si>
-    <t>133.76%</t>
-  </si>
-  <si>
-    <t>-15.96%</t>
-  </si>
-  <si>
-    <t>14.38%</t>
-  </si>
-  <si>
-    <t>29.20%</t>
-  </si>
-  <si>
-    <t>55.76%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>27.29%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>93.45%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>160.74%</t>
+  </si>
+  <si>
+    <t>0.73%</t>
+  </si>
+  <si>
+    <t>39.07%</t>
+  </si>
+  <si>
+    <t>16.55%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>75.60%</t>
+  </si>
+  <si>
+    <t>-25.84%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -512,46 +515,46 @@
     <t>标签占比</t>
   </si>
   <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
   </si>
   <si>
     <t>商业贸易</t>
   </si>
   <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
     <t>锂电池</t>
   </si>
   <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>51.07%</t>
-  </si>
-  <si>
-    <t>12.40%</t>
-  </si>
-  <si>
-    <t>10.91%</t>
-  </si>
-  <si>
-    <t>7.75%</t>
-  </si>
-  <si>
-    <t>6.69%</t>
-  </si>
-  <si>
-    <t>4.61%</t>
-  </si>
-  <si>
-    <t>4.01%</t>
-  </si>
-  <si>
-    <t>2.57%</t>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>21.41%</t>
+  </si>
+  <si>
+    <t>5.30%</t>
+  </si>
+  <si>
+    <t>4.96%</t>
+  </si>
+  <si>
+    <t>2.68%</t>
+  </si>
+  <si>
+    <t>2.60%</t>
+  </si>
+  <si>
+    <t>2.16%</t>
+  </si>
+  <si>
+    <t>2.09%</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,16 +975,16 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.015057573073517</v>
+      </c>
+      <c r="C3">
         <v>1.026622902990518</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.029435483870968</v>
       </c>
-      <c r="D3">
-        <v>1.015057573073517</v>
-      </c>
       <c r="E3">
-        <v>1.023734495808456</v>
+        <v>1.023618842509286</v>
       </c>
       <c r="F3">
         <v>1.018168368380631</v>
@@ -995,16 +998,16 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.02204507430371</v>
+      </c>
+      <c r="C4">
         <v>1.075857038657914</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.045614919354839</v>
       </c>
-      <c r="D4">
-        <v>1.02204507430371</v>
-      </c>
       <c r="E4">
-        <v>1.048119191051012</v>
+        <v>1.04758107140747</v>
       </c>
       <c r="F4">
         <v>1.027111201157197</v>
@@ -1018,16 +1021,16 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.013286093888397</v>
+      </c>
+      <c r="C5">
         <v>1.060630926331145</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.045967741935484</v>
       </c>
-      <c r="D5">
-        <v>1.013286093888397</v>
-      </c>
       <c r="E5">
-        <v>1.04016828077447</v>
+        <v>1.039694832450043</v>
       </c>
       <c r="F5">
         <v>1.025290909062353</v>
@@ -1041,16 +1044,16 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.023324475937408</v>
+      </c>
+      <c r="C6">
         <v>1.069383661560904</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.053326612903226</v>
       </c>
-      <c r="D6">
-        <v>1.023324475937408</v>
-      </c>
       <c r="E6">
-        <v>1.048885304248117</v>
+        <v>1.048424712391882</v>
       </c>
       <c r="F6">
         <v>1.026858339183711</v>
@@ -1064,16 +1067,16 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.026965849817931</v>
+      </c>
+      <c r="C7">
         <v>1.066648431801605</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.050756048387097</v>
       </c>
-      <c r="D7">
-        <v>1.026965849817931</v>
-      </c>
       <c r="E7">
-        <v>1.048308693220205</v>
+        <v>1.047911867400368</v>
       </c>
       <c r="F7">
         <v>1.029917812005761</v>
@@ -1087,16 +1090,16 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.027457927369353</v>
+      </c>
+      <c r="C8">
         <v>1.083333333333333</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.051915322580645</v>
       </c>
-      <c r="D8">
-        <v>1.027457927369353</v>
-      </c>
       <c r="E8">
-        <v>1.054526505816833</v>
+        <v>1.053967751757193</v>
       </c>
       <c r="F8">
         <v>1.013866573688848</v>
@@ -1110,16 +1113,16 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.046255289833678</v>
+      </c>
+      <c r="C9">
         <v>1.109318016046681</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.069153225806452</v>
       </c>
-      <c r="D9">
-        <v>1.046255289833678</v>
-      </c>
       <c r="E9">
-        <v>1.075252935617114</v>
+        <v>1.074622308354984</v>
       </c>
       <c r="F9">
         <v>1.027660901099557</v>
@@ -1133,16 +1136,16 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.043007577994292</v>
+      </c>
+      <c r="C10">
         <v>1.12946754194019</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1.075907258064516</v>
       </c>
-      <c r="D10">
-        <v>1.043007577994292</v>
-      </c>
       <c r="E10">
-        <v>1.083260860159071</v>
+        <v>1.082396260519612</v>
       </c>
       <c r="F10">
         <v>1.020386015005238</v>
@@ -1156,16 +1159,16 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.022143489813995</v>
+      </c>
+      <c r="C11">
         <v>1.1259117432531</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.059576612903226</v>
       </c>
-      <c r="D11">
-        <v>1.022143489813995</v>
-      </c>
       <c r="E11">
-        <v>1.069777626602737</v>
+        <v>1.068739944068346</v>
       </c>
       <c r="F11">
         <v>1.011430617658561</v>
@@ -1179,16 +1182,16 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.02627694124594</v>
+      </c>
+      <c r="C12">
         <v>1.104850474106492</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.055493951612903</v>
       </c>
-      <c r="D12">
-        <v>1.02627694124594</v>
-      </c>
       <c r="E12">
-        <v>1.062633555839626</v>
+        <v>1.06184782051102</v>
       </c>
       <c r="F12">
         <v>1.007914108598721</v>
@@ -1202,16 +1205,16 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.034543844109832</v>
+      </c>
+      <c r="C13">
         <v>1.166940189642597</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.076814516129032</v>
       </c>
-      <c r="D13">
-        <v>1.034543844109832</v>
-      </c>
       <c r="E13">
-        <v>1.093507923357308</v>
+        <v>1.09218395990198</v>
       </c>
       <c r="F13">
         <v>1.023142367573358</v>
@@ -1225,16 +1228,16 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.020372010628875</v>
+      </c>
+      <c r="C14">
         <v>1.149343544857768</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.053427419354839</v>
       </c>
-      <c r="D14">
-        <v>1.020372010628875</v>
-      </c>
       <c r="E14">
-        <v>1.075130617146267</v>
+        <v>1.073840901803978</v>
       </c>
       <c r="F14">
         <v>1.017160061629216</v>
@@ -1248,16 +1251,16 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.028442082472198</v>
+      </c>
+      <c r="C15">
         <v>1.159099197665937</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.073538306451613</v>
       </c>
-      <c r="D15">
-        <v>1.028442082472198</v>
-      </c>
       <c r="E15">
-        <v>1.087747255551276</v>
+        <v>1.086440684399339</v>
       </c>
       <c r="F15">
         <v>1.026434284942462</v>
@@ -1271,16 +1274,16 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.041531345340026</v>
+      </c>
+      <c r="C16">
         <v>1.159828592268417</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.100302419354839</v>
       </c>
-      <c r="D16">
-        <v>1.041531345340026</v>
-      </c>
       <c r="E16">
-        <v>1.101146863720567</v>
+        <v>1.099963891251283</v>
       </c>
       <c r="F16">
         <v>1.04011081950838</v>
@@ -1294,16 +1297,16 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.045664796771971</v>
+      </c>
+      <c r="C17">
         <v>1.146517140773158</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.112903225806452</v>
       </c>
-      <c r="D17">
-        <v>1.045664796771971</v>
-      </c>
       <c r="E17">
-        <v>1.102143275313753</v>
+        <v>1.101134751873742</v>
       </c>
       <c r="F17">
         <v>1.042515364113389</v>
@@ -1317,16 +1320,16 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.051176065347899</v>
+      </c>
+      <c r="C18">
         <v>1.133205689277899</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.112953629032258</v>
       </c>
-      <c r="D18">
-        <v>1.051176065347899</v>
-      </c>
       <c r="E18">
-        <v>1.099452733499938</v>
+        <v>1.098632437260638</v>
       </c>
       <c r="F18">
         <v>1.043693292561303</v>
@@ -1340,16 +1343,16 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.031099301249877</v>
+      </c>
+      <c r="C19">
         <v>1.109135667396061</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.090625</v>
       </c>
-      <c r="D19">
-        <v>1.031099301249877</v>
-      </c>
       <c r="E19">
-        <v>1.07727514632712</v>
+        <v>1.076494782665659</v>
       </c>
       <c r="F19">
         <v>1.026047924411546</v>
@@ -1363,16 +1366,16 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.035429583702391</v>
+      </c>
+      <c r="C20">
         <v>1.103574033552152</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.096824596774193</v>
       </c>
-      <c r="D20">
-        <v>1.035429583702391</v>
-      </c>
       <c r="E20">
-        <v>1.078859050965005</v>
+        <v>1.078177606466507</v>
       </c>
       <c r="F20">
         <v>1.02984870687015</v>
@@ -1386,16 +1389,16 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.009743135518158</v>
+      </c>
+      <c r="C21">
         <v>1.059172137126185</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.055141129032258</v>
       </c>
-      <c r="D21">
-        <v>1.009743135518158</v>
-      </c>
       <c r="E21">
-        <v>1.04153033392454</v>
+        <v>1.04103604390846</v>
       </c>
       <c r="F21">
         <v>1.007424090364388</v>
@@ -1409,16 +1412,16 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.005216022045074</v>
+      </c>
+      <c r="C22">
         <v>1.039296134208607</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1.044254032258064</v>
       </c>
-      <c r="D22">
-        <v>1.005216022045074</v>
-      </c>
       <c r="E22">
-        <v>1.029685803550962</v>
+        <v>1.029345002429327</v>
       </c>
       <c r="F22">
         <v>0.9967065120596316</v>
@@ -1432,16 +1435,16 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.016041728176361</v>
+      </c>
+      <c r="C23">
         <v>1.044766593727206</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.057661290322581</v>
       </c>
-      <c r="D23">
-        <v>1.016041728176361</v>
-      </c>
       <c r="E23">
-        <v>1.039542637971901</v>
+        <v>1.039255389316392</v>
       </c>
       <c r="F23">
         <v>1.004110184997589</v>
@@ -1455,16 +1458,16 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.045763212282256</v>
+      </c>
+      <c r="C24">
         <v>1.053336980306346</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.071118951612903</v>
       </c>
-      <c r="D24">
-        <v>1.045763212282256</v>
-      </c>
       <c r="E24">
-        <v>1.05670568738956</v>
+        <v>1.056629949709319</v>
       </c>
       <c r="F24">
         <v>1.013770768841751</v>
@@ -1478,16 +1481,16 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.03985828166519</v>
+      </c>
+      <c r="C25">
         <v>1.016502552881109</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.058064516129032</v>
       </c>
-      <c r="D25">
-        <v>1.03985828166519</v>
-      </c>
       <c r="E25">
-        <v>1.037925391251671</v>
+        <v>1.038158948539511</v>
       </c>
       <c r="F25">
         <v>1.00506038061224</v>
@@ -1501,16 +1504,16 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.0271626808385</v>
+      </c>
+      <c r="C26">
         <v>1.015134938001459</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.044304435483871</v>
       </c>
-      <c r="D26">
-        <v>1.0271626808385</v>
-      </c>
       <c r="E26">
-        <v>1.028730027306878</v>
+        <v>1.028850304735249</v>
       </c>
       <c r="F26">
         <v>0.9939815709167896</v>
@@ -1524,16 +1527,16 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.019781517567169</v>
+      </c>
+      <c r="C27">
         <v>0.9910649161196207</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.020665322580645</v>
       </c>
-      <c r="D27">
-        <v>1.019781517567169</v>
-      </c>
       <c r="E27">
-        <v>1.010309528729449</v>
+        <v>1.010596694743925</v>
       </c>
       <c r="F27">
         <v>0.9800160512383169</v>
@@ -1547,16 +1550,16 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.029032575533904</v>
+      </c>
+      <c r="C28">
         <v>1.017961342086069</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.035735887096774</v>
       </c>
-      <c r="D28">
-        <v>1.029032575533904</v>
-      </c>
       <c r="E28">
-        <v>1.027480448977387</v>
+        <v>1.027591161311866</v>
       </c>
       <c r="F28">
         <v>0.9930973392952219</v>
@@ -1570,16 +1573,16 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.048715677590788</v>
+      </c>
+      <c r="C29">
         <v>1.031637490882567</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.067288306451613</v>
       </c>
-      <c r="D29">
-        <v>1.048715677590788</v>
-      </c>
       <c r="E29">
-        <v>1.049038061634065</v>
+        <v>1.049208843501148</v>
       </c>
       <c r="F29">
         <v>1.014256075362292</v>
@@ -1593,16 +1596,16 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.070071843322508</v>
+      </c>
+      <c r="C30">
         <v>1.039296134208607</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.083417338709677</v>
       </c>
-      <c r="D30">
-        <v>1.070071843322508</v>
-      </c>
       <c r="E30">
-        <v>1.064012115701547</v>
+        <v>1.064319872792686</v>
       </c>
       <c r="F30">
         <v>1.024824449396979</v>
@@ -1616,16 +1619,16 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.064363743726011</v>
+      </c>
+      <c r="C31">
         <v>1.062727935813275</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.077620967741935</v>
       </c>
-      <c r="D31">
-        <v>1.064363743726011</v>
-      </c>
       <c r="E31">
-        <v>1.068182452960936</v>
+        <v>1.068198811040063</v>
       </c>
       <c r="F31">
         <v>1.038860644782327</v>
@@ -1639,16 +1642,16 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.066036807400846</v>
+      </c>
+      <c r="C32">
         <v>1.057895696571846</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.084627016129032</v>
       </c>
-      <c r="D32">
-        <v>1.066036807400846</v>
-      </c>
       <c r="E32">
-        <v>1.069403598599287</v>
+        <v>1.069485009707577</v>
       </c>
       <c r="F32">
         <v>1.052829305603327</v>
@@ -1662,16 +1665,16 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.027654758389922</v>
+      </c>
+      <c r="C33">
         <v>1.032184536834428</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.059475806451613</v>
       </c>
-      <c r="D33">
-        <v>1.027654758389922</v>
-      </c>
       <c r="E33">
-        <v>1.039695828921412</v>
+        <v>1.039650531136967</v>
       </c>
       <c r="F33">
         <v>1.045538713796369</v>
@@ -1685,16 +1688,16 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.016041728176361</v>
+      </c>
+      <c r="C34">
         <v>1.021243617797228</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.058366935483871</v>
       </c>
-      <c r="D34">
-        <v>1.016041728176361</v>
-      </c>
       <c r="E34">
-        <v>1.031777689058934</v>
+        <v>1.031725670162726</v>
       </c>
       <c r="F34">
         <v>1.041481928221752</v>
@@ -1708,16 +1711,16 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.005511268575928</v>
+      </c>
+      <c r="C35">
         <v>1.028902261123268</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.038508064516129</v>
       </c>
-      <c r="D35">
-        <v>1.005511268575928</v>
-      </c>
       <c r="E35">
-        <v>1.02435314870229</v>
+        <v>1.024119238776816</v>
       </c>
       <c r="F35">
         <v>1.026555218929781</v>
@@ -1731,16 +1734,16 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.006200177147919</v>
+      </c>
+      <c r="C36">
         <v>1.020696571845368</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.037449596774193</v>
       </c>
-      <c r="D36">
-        <v>1.006200177147919</v>
-      </c>
       <c r="E36">
-        <v>1.021441259821722</v>
+        <v>1.021296295874748</v>
       </c>
       <c r="F36">
         <v>1.020737822968348</v>
@@ -1754,16 +1757,16 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>0.9881901387658695</v>
+      </c>
+      <c r="C37">
         <v>1.00656455142232</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.023840725806451</v>
       </c>
-      <c r="D37">
-        <v>0.9881901387658695</v>
-      </c>
       <c r="E37">
-        <v>1.006202132792455</v>
+        <v>1.00601838866589</v>
       </c>
       <c r="F37">
         <v>0.9995665223311676</v>
@@ -1777,16 +1780,16 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.013187678378112</v>
+      </c>
+      <c r="C38">
         <v>1.041666666666667</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>1.057358870967742</v>
       </c>
-      <c r="D38">
-        <v>1.013187678378112</v>
-      </c>
       <c r="E38">
-        <v>1.037447027950799</v>
+        <v>1.037162238067913</v>
       </c>
       <c r="F38">
         <v>1.019055741144727</v>
@@ -1800,16 +1803,16 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.00846373388446</v>
+      </c>
+      <c r="C39">
         <v>1.052060539752006</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1.054435483870968</v>
       </c>
-      <c r="D39">
-        <v>1.00846373388446</v>
-      </c>
       <c r="E39">
-        <v>1.038457325374973</v>
+        <v>1.038021357316298</v>
       </c>
       <c r="F39">
         <v>1.010400322909452</v>
@@ -1823,16 +1826,16 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.017517960830627</v>
+      </c>
+      <c r="C40">
         <v>1.053154631655726</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.061441532258065</v>
       </c>
-      <c r="D40">
-        <v>1.017517960830627</v>
-      </c>
       <c r="E40">
-        <v>1.044129207482215</v>
+        <v>1.043772840773964</v>
       </c>
       <c r="F40">
         <v>1.024758485403896</v>
@@ -1846,16 +1849,16 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.993012498769806</v>
+      </c>
+      <c r="C41">
         <v>1.017687819110139</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1.023387096774194</v>
       </c>
-      <c r="D41">
-        <v>0.993012498769806</v>
-      </c>
       <c r="E41">
-        <v>1.011425725026967</v>
+        <v>1.011178971823564</v>
       </c>
       <c r="F41">
         <v>1.005478152568434</v>
@@ -1869,16 +1872,16 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.9964570416297608</v>
+      </c>
+      <c r="C42">
         <v>1.009664478482859</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>1.02570564516129</v>
       </c>
-      <c r="D42">
-        <v>0.9964570416297608</v>
-      </c>
       <c r="E42">
-        <v>1.010599609325219</v>
+        <v>1.010467534956688</v>
       </c>
       <c r="F42">
         <v>1.005715308829281</v>
@@ -1892,16 +1895,16 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.9664403109930125</v>
+      </c>
+      <c r="C43">
         <v>0.9674507658643325</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.9869959677419354</v>
       </c>
-      <c r="D43">
-        <v>0.9664403109930125</v>
-      </c>
       <c r="E43">
-        <v>0.973567232376406</v>
+        <v>0.9735571278276929</v>
       </c>
       <c r="F43">
         <v>0.9826137761087841</v>
@@ -1915,16 +1918,16 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.9528589705737623</v>
+      </c>
+      <c r="C44">
         <v>0.9205871626549964</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.9539818548387097</v>
       </c>
-      <c r="D44">
-        <v>0.9528589705737623</v>
-      </c>
       <c r="E44">
-        <v>0.9422571076888147</v>
+        <v>0.9425798257680023</v>
       </c>
       <c r="F44">
         <v>0.9593049279814547</v>
@@ -1938,16 +1941,16 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9615195354787914</v>
+      </c>
+      <c r="C45">
         <v>0.9214989059080962</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.9587701612903226</v>
       </c>
-      <c r="D45">
-        <v>0.9615195354787914</v>
-      </c>
       <c r="E45">
-        <v>0.9470052279425604</v>
+        <v>0.9474054342382673</v>
       </c>
       <c r="F45">
         <v>0.952121135020441</v>
@@ -1961,16 +1964,16 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9738214742643441</v>
+      </c>
+      <c r="C46">
         <v>0.9493982494529539</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.975554435483871</v>
       </c>
-      <c r="D46">
-        <v>0.9738214742643441</v>
-      </c>
       <c r="E46">
-        <v>0.9660894550309154</v>
+        <v>0.9663336872790294</v>
       </c>
       <c r="F46">
         <v>0.9759262836671583</v>
@@ -1984,16 +1987,16 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.9786438342682806</v>
+      </c>
+      <c r="C47">
         <v>0.9350838803792852</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.9792842741935485</v>
       </c>
-      <c r="D47">
-        <v>0.9786438342682806</v>
-      </c>
       <c r="E47">
-        <v>0.9640447951213605</v>
+        <v>0.9644803946602506</v>
       </c>
       <c r="F47">
         <v>0.9772691220977807</v>
@@ -2007,16 +2010,16 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.965849817931306</v>
+      </c>
+      <c r="C48">
         <v>0.8967906637490883</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.9550907258064516</v>
       </c>
-      <c r="D48">
-        <v>0.965849817931306</v>
-      </c>
       <c r="E48">
-        <v>0.9388192051081501</v>
+        <v>0.9395097966499721</v>
       </c>
       <c r="F48">
         <v>0.9696502808966706</v>
@@ -2030,16 +2033,16 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9761834465111702</v>
+      </c>
+      <c r="C49">
         <v>0.8914113785557987</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.9518649193548387</v>
       </c>
-      <c r="D49">
-        <v>0.9761834465111702</v>
-      </c>
       <c r="E49">
-        <v>0.9393358294447546</v>
+        <v>0.9401835501243083</v>
       </c>
       <c r="F49">
         <v>0.9730065916875945</v>
@@ -2053,16 +2056,16 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9900600334612735</v>
+      </c>
+      <c r="C50">
         <v>0.9170313639679066</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.9625504032258064</v>
       </c>
-      <c r="D50">
-        <v>0.9900600334612735</v>
-      </c>
       <c r="E50">
-        <v>0.9561521078558246</v>
+        <v>0.9568823945507583</v>
       </c>
       <c r="F50">
         <v>0.9777371523344186</v>
@@ -2076,16 +2079,16 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9982285208148804</v>
+      </c>
+      <c r="C51">
         <v>0.9179431072210065</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.9705141129032258</v>
       </c>
-      <c r="D51">
-        <v>0.9982285208148804</v>
-      </c>
       <c r="E51">
-        <v>0.9617857255821173</v>
+        <v>0.962588579718056</v>
       </c>
       <c r="F51">
         <v>0.9853544229642648</v>
@@ -2099,16 +2102,16 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9790374963094184</v>
+      </c>
+      <c r="C52">
         <v>0.9106491611962072</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.9604838709677419</v>
       </c>
-      <c r="D52">
-        <v>0.9790374963094184</v>
-      </c>
       <c r="E52">
-        <v>0.9496627660081733</v>
+        <v>0.9503466493593056</v>
       </c>
       <c r="F52">
         <v>0.9747907606433689</v>
@@ -2122,16 +2125,16 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9923235901978151</v>
+      </c>
+      <c r="C53">
         <v>0.9125638220277169</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.9756048387096774</v>
       </c>
-      <c r="D53">
-        <v>0.9923235901978151</v>
-      </c>
       <c r="E53">
-        <v>0.9596880810288964</v>
+        <v>0.9604856787105973</v>
       </c>
       <c r="F53">
         <v>0.9903535512972134</v>
@@ -2145,16 +2148,16 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9781517567168586</v>
+      </c>
+      <c r="C54">
         <v>0.9124726477024069</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.9649193548387097</v>
       </c>
-      <c r="D54">
-        <v>0.9781517567168586</v>
-      </c>
       <c r="E54">
-        <v>0.951454167032156</v>
+        <v>0.9521109581223005</v>
       </c>
       <c r="F54">
         <v>0.9767649687220733</v>
@@ -2168,16 +2171,16 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9668339730341502</v>
+      </c>
+      <c r="C55">
         <v>0.8925966447848286</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>0.9440020161290322</v>
       </c>
-      <c r="D55">
-        <v>0.9668339730341502</v>
-      </c>
       <c r="E55">
-        <v>0.934058735650692</v>
+        <v>0.9348011089331851</v>
       </c>
       <c r="F55">
         <v>0.9647296811269164</v>
@@ -2191,16 +2194,16 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9638815077256176</v>
+      </c>
+      <c r="C56">
         <v>0.9000729394602479</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>0.9422883064516129</v>
       </c>
-      <c r="D56">
-        <v>0.9638815077256176</v>
-      </c>
       <c r="E56">
-        <v>0.9350608380949703</v>
+        <v>0.9356989237776241</v>
       </c>
       <c r="F56">
         <v>0.9670651205963146</v>
@@ -2214,16 +2217,16 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.9840566873339238</v>
+      </c>
+      <c r="C57">
         <v>0.9171225382932167</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>0.9686491935483871</v>
       </c>
-      <c r="D57">
-        <v>0.9840566873339238</v>
-      </c>
       <c r="E57">
-        <v>0.9562146037108563</v>
+        <v>0.9568839452012634</v>
       </c>
       <c r="F57">
         <v>0.9818881721848689</v>
@@ -2237,16 +2240,16 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9809073910048224</v>
+      </c>
+      <c r="C58">
         <v>0.9214077315827862</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>0.9701108870967743</v>
       </c>
-      <c r="D58">
-        <v>0.9809073910048224</v>
-      </c>
       <c r="E58">
-        <v>0.9571146605116742</v>
+        <v>0.9577096571058946</v>
       </c>
       <c r="F58">
         <v>0.9823829021329928</v>
@@ -2260,16 +2263,16 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.982482039169373</v>
+      </c>
+      <c r="C59">
         <v>0.9232312180889861</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>0.9806451612903225</v>
       </c>
-      <c r="D59">
-        <v>0.982482039169373</v>
-      </c>
       <c r="E59">
-        <v>0.9617305903019548</v>
+        <v>0.9623230985127587</v>
       </c>
       <c r="F59">
         <v>0.9863752942857905</v>
@@ -2283,16 +2286,16 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9785454187579962</v>
+      </c>
+      <c r="C60">
         <v>0.9211342086068562</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>0.9749495967741935</v>
       </c>
-      <c r="D60">
-        <v>0.9785454187579962</v>
-      </c>
       <c r="E60">
-        <v>0.9578389860519538</v>
+        <v>0.9584130981534651</v>
       </c>
       <c r="F60">
         <v>0.9822462624330348</v>
@@ -2306,16 +2309,16 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9933077453006595</v>
+      </c>
+      <c r="C61">
         <v>0.9566921954777534</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>0.9870463709677419</v>
       </c>
-      <c r="D61">
-        <v>0.9933077453006595</v>
-      </c>
       <c r="E61">
-        <v>0.9787922048310087</v>
+        <v>0.9791583603292378</v>
       </c>
       <c r="F61">
         <v>0.9912911823417532</v>
@@ -2329,16 +2332,16 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.005609684086212</v>
+      </c>
+      <c r="C62">
         <v>1.0036469730124</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>0.9946572580645161</v>
       </c>
-      <c r="D62">
-        <v>1.005609684086212</v>
-      </c>
       <c r="E62">
-        <v>1.001328061733956</v>
+        <v>1.001347688844694</v>
       </c>
       <c r="F62">
         <v>0.9936391863812625</v>
@@ -2352,16 +2355,16 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>1.000098415510284</v>
+      </c>
+      <c r="C63">
         <v>0.9978118161925602</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>0.9985887096774194</v>
       </c>
-      <c r="D63">
-        <v>1.000098415510284</v>
-      </c>
       <c r="E63">
-        <v>0.9988227688174127</v>
+        <v>0.99884563481059</v>
       </c>
       <c r="F63">
         <v>0.9962290583954103</v>
@@ -2375,16 +2378,16 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9961617950989076</v>
+      </c>
+      <c r="C64">
         <v>0.9975382932166302</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>0.9916834677419355</v>
       </c>
-      <c r="D64">
-        <v>0.9961617950989076</v>
-      </c>
       <c r="E64">
-        <v>0.9951519564311324</v>
+        <v>0.9951381914499553</v>
       </c>
       <c r="F64">
         <v>0.9970112028848254</v>
@@ -2398,16 +2401,16 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9957681330577699</v>
+      </c>
+      <c r="C65">
         <v>0.9950765864332604</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>0.9917842741935484</v>
       </c>
-      <c r="D65">
-        <v>0.9957681330577699</v>
-      </c>
       <c r="E65">
-        <v>0.9942183337802437</v>
+        <v>0.9942252492464887</v>
       </c>
       <c r="F65">
         <v>0.9983728881706143</v>
@@ -2421,16 +2424,16 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9892727093789982</v>
+      </c>
+      <c r="C66">
         <v>0.9869620714806711</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>0.9883568548387097</v>
       </c>
-      <c r="D66">
-        <v>0.9892727093789982</v>
-      </c>
       <c r="E66">
-        <v>0.9881848604952719</v>
+        <v>0.9882079668742552</v>
       </c>
       <c r="F66">
         <v>0.9949945893819959</v>
@@ -2444,16 +2447,16 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9712626709969491</v>
+      </c>
+      <c r="C67">
         <v>0.9705506929248724</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>0.9550907258064516</v>
       </c>
-      <c r="D67">
-        <v>0.9712626709969491</v>
-      </c>
       <c r="E67">
-        <v>0.9656838565395789</v>
+        <v>0.9656909763202997</v>
       </c>
       <c r="F67">
         <v>0.9779036328883906</v>
@@ -2467,16 +2470,16 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.957189253026277</v>
+      </c>
+      <c r="C68">
         <v>0.9644420131291029</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>0.958719758064516</v>
       </c>
-      <c r="D68">
-        <v>0.957189253026277</v>
-      </c>
       <c r="E68">
-        <v>0.9601602581238567</v>
+        <v>0.9600877305228285</v>
       </c>
       <c r="F68">
         <v>0.9752902023052845</v>
@@ -2490,16 +2493,16 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9792343273299872</v>
+      </c>
+      <c r="C69">
         <v>0.9681801604668127</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>0.9744455645161291</v>
       </c>
-      <c r="D69">
-        <v>0.9792343273299872</v>
-      </c>
       <c r="E69">
-        <v>0.9738956188679347</v>
+        <v>0.9740061605365664</v>
       </c>
       <c r="F69">
         <v>0.9858805643376666</v>
@@ -2513,16 +2516,16 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9749040448774727</v>
+      </c>
+      <c r="C70">
         <v>0.9624361779722831</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>0.9716733870967742</v>
       </c>
-      <c r="D70">
-        <v>0.9749040448774727</v>
-      </c>
       <c r="E70">
-        <v>0.9695988530620778</v>
+        <v>0.9697235317311297</v>
       </c>
       <c r="F70">
         <v>0.9857627714928752</v>
@@ -2536,16 +2539,16 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9870091526424564</v>
+      </c>
+      <c r="C71">
         <v>0.9574215900802334</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>0.9723286290322581</v>
       </c>
-      <c r="D71">
-        <v>0.9870091526424564</v>
-      </c>
       <c r="E71">
-        <v>0.9721048085799353</v>
+        <v>0.9724006842055575</v>
       </c>
       <c r="F71">
         <v>0.9956777878817863</v>
@@ -2559,16 +2562,16 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>1.009743135518158</v>
+      </c>
+      <c r="C72">
         <v>0.9801239970824216</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>1.002923387096774</v>
       </c>
-      <c r="D72">
-        <v>1.009743135518158</v>
-      </c>
       <c r="E72">
-        <v>0.9974221114709508</v>
+        <v>0.9977183028553083</v>
       </c>
       <c r="F72">
         <v>1.009132871899496</v>
@@ -2582,16 +2585,16 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>1.004330282452514</v>
+      </c>
+      <c r="C73">
         <v>0.9700948212983225</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>0.9984375000000001</v>
       </c>
-      <c r="D73">
-        <v>1.004330282452514</v>
-      </c>
       <c r="E73">
-        <v>0.9907456074507595</v>
+        <v>0.9910879620623014</v>
       </c>
       <c r="F73">
         <v>1.009648019274051</v>
@@ -2605,16 +2608,16 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.00088573959256</v>
+      </c>
+      <c r="C74">
         <v>0.9735594456601022</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>1.000604838709678</v>
       </c>
-      <c r="D74">
-        <v>1.00088573959256</v>
-      </c>
       <c r="E74">
-        <v>0.9915021023641731</v>
+        <v>0.9917753653034975</v>
       </c>
       <c r="F74">
         <v>1.008347586267553</v>
@@ -2628,16 +2631,16 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.000787324082275</v>
+      </c>
+      <c r="C75">
         <v>0.9834062727935813</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>1.009274193548387</v>
       </c>
-      <c r="D75">
-        <v>1.000787324082275</v>
-      </c>
       <c r="E75">
-        <v>0.9976784335679363</v>
+        <v>0.9978522440808232</v>
       </c>
       <c r="F75">
         <v>1.012306996423809</v>
@@ -2651,16 +2654,16 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.00177147918512</v>
+      </c>
+      <c r="C76">
         <v>0.987235594456601</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>1.01703629032258</v>
       </c>
-      <c r="D76">
-        <v>1.00177147918512</v>
-      </c>
       <c r="E76">
-        <v>1.001866666052786</v>
+        <v>1.002012024900071</v>
       </c>
       <c r="F76">
         <v>1.015022514139068</v>
@@ -2674,16 +2677,16 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.99488239346521</v>
+      </c>
+      <c r="C77">
         <v>0.9897884755652807</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>1.012701612903226</v>
       </c>
-      <c r="D77">
-        <v>0.99488239346521</v>
-      </c>
       <c r="E77">
-        <v>0.9990308037937794</v>
+        <v>0.9990817429727786</v>
       </c>
       <c r="F77">
         <v>1.011864095327393</v>
@@ -2697,16 +2700,16 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.996260210609192</v>
+      </c>
+      <c r="C78">
         <v>0.9785740335521517</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>1.012298387096774</v>
       </c>
-      <c r="D78">
-        <v>0.996260210609192</v>
-      </c>
       <c r="E78">
-        <v>0.9955395086507004</v>
+        <v>0.9957163704212709</v>
       </c>
       <c r="F78">
         <v>1.012434212696184</v>
@@ -2720,16 +2723,16 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.004723944493652</v>
+      </c>
+      <c r="C79">
         <v>0.9976294675419403</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>1.020262096774194</v>
       </c>
-      <c r="D79">
-        <v>1.004723944493652</v>
-      </c>
       <c r="E79">
-        <v>1.007439412582649</v>
+        <v>1.007510357352166</v>
       </c>
       <c r="F79">
         <v>1.019259915409032</v>
@@ -2743,16 +2746,16 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.00600334612735</v>
+      </c>
+      <c r="C80">
         <v>1.00483223924143</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>1.021925403225806</v>
       </c>
-      <c r="D80">
-        <v>1.00600334612735</v>
-      </c>
       <c r="E80">
-        <v>1.010859448628628</v>
+        <v>1.010871159697487</v>
       </c>
       <c r="F80">
         <v>1.019603870515823</v>
@@ -2766,16 +2769,16 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.000492077551422</v>
+      </c>
+      <c r="C81">
         <v>1.009938001458789</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>1.022479838709677</v>
       </c>
-      <c r="D81">
-        <v>1.000492077551422</v>
-      </c>
       <c r="E81">
-        <v>1.010959652862151</v>
+        <v>1.010865193623077</v>
       </c>
       <c r="F81">
         <v>1.018626975189686</v>
@@ -2789,16 +2792,16 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>0.9900600334612735</v>
+      </c>
+      <c r="C82">
         <v>0.9967177242888402</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>1.009122983870968</v>
       </c>
-      <c r="D82">
-        <v>0.9900600334612735</v>
-      </c>
       <c r="E82">
-        <v>0.9986144219778452</v>
+        <v>0.9985478450695697</v>
       </c>
       <c r="F82">
         <v>1.01919866312974</v>
@@ -2812,16 +2815,16 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.9718531640586557</v>
+      </c>
+      <c r="C83">
         <v>0.9526805251641137</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>0.9738407258064515</v>
       </c>
-      <c r="D83">
-        <v>0.9718531640586557</v>
-      </c>
       <c r="E83">
-        <v>0.9659903622112842</v>
+        <v>0.9661820886002295</v>
       </c>
       <c r="F83">
         <v>1.012145227583629</v>
@@ -2835,16 +2838,16 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9788406652888496</v>
+      </c>
+      <c r="C84">
         <v>0.9333515681983954</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>0.9633568548387097</v>
       </c>
-      <c r="D84">
-        <v>0.9788406652888496</v>
-      </c>
       <c r="E84">
-        <v>0.9582647148295491</v>
+        <v>0.9587196058004537</v>
       </c>
       <c r="F84">
         <v>1.017100379921189</v>
@@ -2858,16 +2861,16 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.9784470032477118</v>
+      </c>
+      <c r="C85">
         <v>0.9413749088256747</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>0.9631552419354839</v>
       </c>
-      <c r="D85">
-        <v>0.9784470032477118</v>
-      </c>
       <c r="E85">
-        <v>0.960796209911184</v>
+        <v>0.9611669308554043</v>
       </c>
       <c r="F85">
         <v>1.013967090249737</v>
@@ -2881,16 +2884,16 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.9866154906013187</v>
+      </c>
+      <c r="C86">
         <v>0.9553245805981037</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>0.9696068548387097</v>
       </c>
-      <c r="D86">
-        <v>0.9866154906013187</v>
-      </c>
       <c r="E86">
-        <v>0.9703637313985647</v>
+        <v>0.9706766404985967</v>
       </c>
       <c r="F86">
         <v>1.022763859898761</v>
@@ -2904,16 +2907,16 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.9680149591575633</v>
+      </c>
+      <c r="C87">
         <v>0.9482129832239242</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>0.9617943548387097</v>
       </c>
-      <c r="D87">
-        <v>0.9680149591575633</v>
-      </c>
       <c r="E87">
-        <v>0.9592294879149044</v>
+        <v>0.9594275076742409</v>
       </c>
       <c r="F87">
         <v>1.011295548529867</v>
@@ -2927,16 +2930,16 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.9839582718236394</v>
+      </c>
+      <c r="C88">
         <v>0.9706418672501823</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>0.9808467741935484</v>
       </c>
-      <c r="D88">
-        <v>0.9839582718236394</v>
-      </c>
       <c r="E88">
-        <v>0.9784039000507341</v>
+        <v>0.9785370640964686</v>
       </c>
       <c r="F88">
         <v>1.024923395386604</v>
@@ -2950,16 +2953,16 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>0.9970475346914672</v>
+      </c>
+      <c r="C89">
         <v>0.9813092633114515</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>0.9970262096774194</v>
       </c>
-      <c r="D89">
-        <v>0.9970475346914672</v>
-      </c>
       <c r="E89">
-        <v>0.9916894851676261</v>
+        <v>0.9918468678814263</v>
       </c>
       <c r="F89">
         <v>1.033143765381782</v>
@@ -2973,16 +2976,16 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>0.9993110914280091</v>
+      </c>
+      <c r="C90">
         <v>0.9739241429613421</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>0.9916834677419355</v>
       </c>
-      <c r="D90">
-        <v>0.9993110914280091</v>
-      </c>
       <c r="E90">
-        <v>0.9881624131329381</v>
+        <v>0.9884162826176047</v>
       </c>
       <c r="F90">
         <v>1.036514211314081</v>
@@ -2996,16 +2999,16 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.003936620411377</v>
+      </c>
+      <c r="C91">
         <v>0.9877826404084609</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>0.9979838709677419</v>
       </c>
-      <c r="D91">
-        <v>1.003936620411377</v>
-      </c>
       <c r="E91">
-        <v>0.9964798598939859</v>
+        <v>0.9966413996940151</v>
       </c>
       <c r="F91">
         <v>1.034125372421711</v>
@@ -3019,16 +3022,16 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.006790670209625</v>
+      </c>
+      <c r="C92">
         <v>0.9862326768781912</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>0.9998487903225807</v>
       </c>
-      <c r="D92">
-        <v>1.006790670209625</v>
-      </c>
       <c r="E92">
-        <v>0.9975101321142129</v>
+        <v>0.9977157120475273</v>
       </c>
       <c r="F92">
         <v>1.028521574152166</v>
@@ -3042,16 +3045,16 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.004822360003937</v>
+      </c>
+      <c r="C93">
         <v>0.9772064186725019</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>0.9936491935483871</v>
       </c>
-      <c r="D93">
-        <v>1.004822360003937</v>
-      </c>
       <c r="E93">
-        <v>0.9917457950209175</v>
+        <v>0.9920219544342317</v>
       </c>
       <c r="F93">
         <v>1.025246933066964</v>
@@ -3065,16 +3068,16 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.004035035921661</v>
+      </c>
+      <c r="C94">
         <v>0.9857768052516411</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>0.9990423387096774</v>
       </c>
-      <c r="D94">
-        <v>1.004035035921661</v>
-      </c>
       <c r="E94">
-        <v>0.9961796474138997</v>
+        <v>0.9963622297205998</v>
       </c>
       <c r="F94">
         <v>1.027800681942043</v>
@@ -3088,16 +3091,16 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.016829052258636</v>
+      </c>
+      <c r="C95">
         <v>1.016411378555799</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>1.015272177419355</v>
       </c>
-      <c r="D95">
-        <v>1.016829052258636</v>
-      </c>
       <c r="E95">
-        <v>1.016173274502709</v>
+        <v>1.016177451239737</v>
       </c>
       <c r="F95">
         <v>1.0396663478407</v>
@@ -3111,16 +3114,16 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.019683102056884</v>
+      </c>
+      <c r="C96">
         <v>1.00492341356674</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>1.008417338709678</v>
       </c>
-      <c r="D96">
-        <v>1.019683102056884</v>
-      </c>
       <c r="E96">
-        <v>1.010947106065657</v>
+        <v>1.011094702950558</v>
       </c>
       <c r="F96">
         <v>1.041007615700059</v>
@@ -3134,16 +3137,16 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.028146835941344</v>
+      </c>
+      <c r="C97">
         <v>1.045404814004376</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>1.024042338709677</v>
       </c>
-      <c r="D97">
-        <v>1.028146835941344</v>
-      </c>
       <c r="E97">
-        <v>1.032660064396325</v>
+        <v>1.032487484615695</v>
       </c>
       <c r="F97">
         <v>1.049991283329486</v>
@@ -3157,16 +3160,16 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.023521306957977</v>
+      </c>
+      <c r="C98">
         <v>1.035740335521517</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>1.022127016129032</v>
       </c>
-      <c r="D98">
-        <v>1.023521306957977</v>
-      </c>
       <c r="E98">
-        <v>1.027215660696029</v>
+        <v>1.027093470410393</v>
       </c>
       <c r="F98">
         <v>1.047283618470546</v>
@@ -3180,16 +3183,16 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.020864088180297</v>
+      </c>
+      <c r="C99">
         <v>1.060083880379285</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1.044707661290323</v>
       </c>
-      <c r="D99">
-        <v>1.020864088180297</v>
-      </c>
       <c r="E99">
-        <v>1.042067196654262</v>
+        <v>1.041674998732272</v>
       </c>
       <c r="F99">
         <v>1.0568358328975</v>
@@ -3203,16 +3206,16 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.025489617163665</v>
+      </c>
+      <c r="C100">
         <v>1.071298322392414</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>1.047026209677419</v>
       </c>
-      <c r="D100">
-        <v>1.025489617163665</v>
-      </c>
       <c r="E100">
-        <v>1.048171652470979</v>
+        <v>1.047713565418691</v>
       </c>
       <c r="F100">
         <v>1.058527338148705</v>
@@ -3226,16 +3229,16 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.01781320736148</v>
+      </c>
+      <c r="C101">
         <v>1.059263311451495</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>1.030292338709677</v>
       </c>
-      <c r="D101">
-        <v>1.01781320736148</v>
-      </c>
       <c r="E101">
-        <v>1.03602435609699</v>
+        <v>1.03560985505609</v>
       </c>
       <c r="F101">
         <v>1.049366195966459</v>
@@ -3249,16 +3252,16 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.013482924908966</v>
+      </c>
+      <c r="C102">
         <v>1.044037199124727</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>1.018699596774194</v>
       </c>
-      <c r="D102">
-        <v>1.013482924908966</v>
-      </c>
       <c r="E102">
-        <v>1.02559287985785</v>
+        <v>1.025287337115692</v>
       </c>
       <c r="F102">
         <v>1.047214513334935</v>
@@ -3272,16 +3275,16 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.01446708001181</v>
+      </c>
+      <c r="C103">
         <v>1.066010211524435</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1.027116935483871</v>
       </c>
-      <c r="D103">
-        <v>1.01446708001181</v>
-      </c>
       <c r="E103">
-        <v>1.036166197031883</v>
+        <v>1.035650765716756</v>
       </c>
       <c r="F103">
         <v>1.051192770346358</v>
@@ -3295,16 +3298,16 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.013679755929535</v>
+      </c>
+      <c r="C104">
         <v>1.088986141502553</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>1.036189516129032</v>
       </c>
-      <c r="D104">
-        <v>1.013679755929535</v>
-      </c>
       <c r="E104">
-        <v>1.046712147890195</v>
+        <v>1.045959084034465</v>
       </c>
       <c r="F104">
         <v>1.055659475020849</v>
@@ -3318,16 +3321,16 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.015451235114654</v>
+      </c>
+      <c r="C105">
         <v>1.082786287381473</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>1.030191532258064</v>
       </c>
-      <c r="D105">
-        <v>1.015451235114654</v>
-      </c>
       <c r="E105">
-        <v>1.043209450942698</v>
+        <v>1.04253610042003</v>
       </c>
       <c r="F105">
         <v>1.049857784772055</v>
@@ -3341,16 +3344,16 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.01180986123413</v>
+      </c>
+      <c r="C106">
         <v>1.096097738876732</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>1.0328125</v>
       </c>
-      <c r="D106">
-        <v>1.01180986123413</v>
-      </c>
       <c r="E106">
-        <v>1.047398610425352</v>
+        <v>1.046555731648926</v>
       </c>
       <c r="F106">
         <v>1.051167641206136</v>
@@ -3364,16 +3367,16 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.017911622871765</v>
+      </c>
+      <c r="C107">
         <v>1.110959153902261</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>1.044858870967742</v>
       </c>
-      <c r="D107">
-        <v>1.017911622871765</v>
-      </c>
       <c r="E107">
-        <v>1.058440375293806</v>
+        <v>1.057509899983501</v>
       </c>
       <c r="F107">
         <v>1.062591976579641</v>
@@ -3387,16 +3390,16 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.015943312666076</v>
+      </c>
+      <c r="C108">
         <v>1.093818380743983</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>1.040977822580645</v>
       </c>
-      <c r="D108">
-        <v>1.015943312666076</v>
-      </c>
       <c r="E108">
-        <v>1.050682224084372</v>
+        <v>1.049903473403593</v>
       </c>
       <c r="F108">
         <v>1.056353667519487</v>
@@ -3410,16 +3413,16 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.010136797559295</v>
+      </c>
+      <c r="C109">
         <v>1.107768052516412</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>1.042641129032258</v>
       </c>
-      <c r="D109">
-        <v>1.010136797559295</v>
-      </c>
       <c r="E109">
-        <v>1.054057853630793</v>
+        <v>1.053081541081222</v>
       </c>
       <c r="F109">
         <v>1.046575290830534</v>
@@ -3433,16 +3436,16 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>0.9916346816258242</v>
+      </c>
+      <c r="C110">
         <v>1.074762946754194</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>1.017590725806452</v>
       </c>
-      <c r="D110">
-        <v>0.9916346816258242</v>
-      </c>
       <c r="E110">
-        <v>1.028463786349077</v>
+        <v>1.027632503697793</v>
       </c>
       <c r="F110">
         <v>1.031282638434078</v>
@@ -3456,16 +3459,16 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>0.993012498769806</v>
+      </c>
+      <c r="C111">
         <v>1.158096280087527</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>1.040574596774194</v>
       </c>
-      <c r="D111">
-        <v>0.993012498769806</v>
-      </c>
       <c r="E111">
-        <v>1.064836476759279</v>
+        <v>1.063185638946102</v>
       </c>
       <c r="F111">
         <v>1.03911664789834</v>
@@ -3479,16 +3482,16 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.005904930617065</v>
+      </c>
+      <c r="C112">
         <v>1.167122538293217</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>1.05866935483871</v>
       </c>
-      <c r="D112">
-        <v>1.005904930617065</v>
-      </c>
       <c r="E112">
-        <v>1.078131177220099</v>
+        <v>1.076519001143338</v>
       </c>
       <c r="F112">
         <v>1.045648653784841</v>
@@ -3502,16 +3505,16 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.002066725715973</v>
+      </c>
+      <c r="C113">
         <v>1.173504741064916</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>1.072379032258065</v>
       </c>
-      <c r="D113">
-        <v>1.002066725715973</v>
-      </c>
       <c r="E113">
-        <v>1.083558712093504</v>
+        <v>1.081844331940014</v>
       </c>
       <c r="F113">
         <v>1.053410416970965</v>
@@ -3525,16 +3528,16 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.007085916740478</v>
+      </c>
+      <c r="C114">
         <v>1.171772428884026</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>1.076915322580645</v>
       </c>
-      <c r="D114">
-        <v>1.007085916740478</v>
-      </c>
       <c r="E114">
-        <v>1.08612303479654</v>
+        <v>1.084476169675104</v>
       </c>
       <c r="F114">
         <v>1.058532049862497</v>
@@ -3548,16 +3551,16 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.022537151855132</v>
+      </c>
+      <c r="C115">
         <v>1.224653537563822</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>1.092590725806452</v>
       </c>
-      <c r="D115">
-        <v>1.022537151855132</v>
-      </c>
       <c r="E115">
-        <v>1.114374402400022</v>
+        <v>1.112353238542935</v>
       </c>
       <c r="F115">
         <v>1.066410035322148</v>
@@ -3571,16 +3574,16 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.01692746776892</v>
+      </c>
+      <c r="C116">
         <v>1.204959883296864</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>1.088659274193548</v>
       </c>
-      <c r="D116">
-        <v>1.01692746776892</v>
-      </c>
       <c r="E116">
-        <v>1.104529985168548</v>
+        <v>1.102649661013269</v>
       </c>
       <c r="F116">
         <v>1.060900471328436</v>
@@ -3594,16 +3597,16 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.019289440015747</v>
+      </c>
+      <c r="C117">
         <v>1.219547775346462</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>1.101461693548387</v>
       </c>
-      <c r="D117">
-        <v>1.019289440015747</v>
-      </c>
       <c r="E117">
-        <v>1.114494117693961</v>
+        <v>1.112491534340654</v>
       </c>
       <c r="F117">
         <v>1.070094595507224</v>
@@ -3617,22 +3620,229 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.219547775346462</v>
+        <v>1.027457927369353</v>
       </c>
       <c r="C118">
-        <v>1.101461693548387</v>
+        <v>1.239423778264041</v>
       </c>
       <c r="D118">
-        <v>1.019289440015747</v>
+        <v>1.115372983870968</v>
       </c>
       <c r="E118">
-        <v>1.114494117693961</v>
+        <v>1.126418626810133</v>
       </c>
       <c r="F118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="G118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.014762326542663</v>
+      </c>
+      <c r="C119">
+        <v>1.227024070021882</v>
+      </c>
+      <c r="D119">
+        <v>1.108921370967742</v>
+      </c>
+      <c r="E119">
+        <v>1.115881186551081</v>
+      </c>
+      <c r="F119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="G119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.016336974707214</v>
+      </c>
+      <c r="C120">
+        <v>1.282913931436907</v>
+      </c>
+      <c r="D120">
+        <v>1.130191532258065</v>
+      </c>
+      <c r="E120">
+        <v>1.141879374419794</v>
+      </c>
+      <c r="F120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="G120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.011613030213562</v>
+      </c>
+      <c r="C121">
+        <v>1.25291757840992</v>
+      </c>
+      <c r="D121">
+        <v>1.111038306451613</v>
+      </c>
+      <c r="E121">
+        <v>1.124053872276917</v>
+      </c>
+      <c r="F121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="G121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9947839779549256</v>
+      </c>
+      <c r="C122">
+        <v>1.233497447118891</v>
+      </c>
+      <c r="D122">
+        <v>1.093497983870968</v>
+      </c>
+      <c r="E122">
+        <v>1.106135044731328</v>
+      </c>
+      <c r="F122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="G122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9928156677492372</v>
+      </c>
+      <c r="C123">
+        <v>1.283096280087527</v>
+      </c>
+      <c r="D123">
+        <v>1.103377016129032</v>
+      </c>
+      <c r="E123">
+        <v>1.125093514786205</v>
+      </c>
+      <c r="F123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="G123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.995079224485779</v>
+      </c>
+      <c r="C124">
+        <v>1.258205689277899</v>
+      </c>
+      <c r="D124">
+        <v>1.096118951612903</v>
+      </c>
+      <c r="E124">
+        <v>1.11525406781913</v>
+      </c>
+      <c r="F124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="G124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.006200177147919</v>
+      </c>
+      <c r="C125">
+        <v>1.293490153172867</v>
+      </c>
+      <c r="D125">
+        <v>1.124495967741935</v>
+      </c>
+      <c r="E125">
+        <v>1.140043480132177</v>
+      </c>
+      <c r="F125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="G125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9958665485680543</v>
+      </c>
+      <c r="C126">
+        <v>1.329412837345004</v>
+      </c>
+      <c r="D126">
+        <v>1.140625</v>
+      </c>
+      <c r="E126">
+        <v>1.15370711283699</v>
+      </c>
+      <c r="F126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="G126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9992126759177247</v>
+      </c>
+      <c r="C127">
+        <v>1.310083880379285</v>
+      </c>
+      <c r="D127">
+        <v>1.140977822580645</v>
+      </c>
+      <c r="E127">
+        <v>1.148582671788803</v>
+      </c>
+      <c r="F127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="G127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -3744,18 +3954,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -3787,131 +3997,119 @@
       <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>81.61</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K2">
-        <v>8.33</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L2">
-        <v>20.06</v>
-      </c>
-      <c r="M2">
-        <v>59.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="J3">
-        <v>42.44</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="K3">
-        <v>4.53</v>
+        <v>87.84709930419922</v>
       </c>
       <c r="L3">
-        <v>6.75</v>
-      </c>
-      <c r="M3">
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>59.9349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>34.32</v>
+        <v>4.628699779510498</v>
       </c>
       <c r="K4">
-        <v>3.01</v>
+        <v>43.45380020141602</v>
       </c>
       <c r="L4">
-        <v>-5.03</v>
-      </c>
-      <c r="M4">
-        <v>-23.34</v>
+        <v>12.7452</v>
       </c>
     </row>
   </sheetData>
@@ -3929,19 +4127,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3949,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
@@ -3969,10 +4167,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
@@ -3989,10 +4187,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>105</v>
@@ -4009,10 +4207,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -4029,10 +4227,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
@@ -4049,10 +4247,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>108</v>
@@ -4069,10 +4267,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -4081,7 +4279,7 @@
         <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4089,10 +4287,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>110</v>
@@ -4101,7 +4299,7 @@
         <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4109,10 +4307,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>111</v>
@@ -4121,7 +4319,7 @@
         <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4129,10 +4327,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>112</v>
@@ -4141,7 +4339,7 @@
         <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4149,10 +4347,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>113</v>
@@ -4161,7 +4359,7 @@
         <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4169,10 +4367,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>114</v>
@@ -4181,7 +4379,7 @@
         <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4189,10 +4387,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
         <v>115</v>
@@ -4201,7 +4399,7 @@
         <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4209,10 +4407,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>116</v>
@@ -4221,7 +4419,7 @@
         <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4229,10 +4427,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
@@ -4241,7 +4439,7 @@
         <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4249,10 +4447,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>118</v>
@@ -4261,7 +4459,7 @@
         <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4269,10 +4467,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -4281,7 +4479,7 @@
         <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4289,10 +4487,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>120</v>
@@ -4301,7 +4499,7 @@
         <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4309,7 +4507,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
@@ -4321,7 +4519,7 @@
         <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4329,7 +4527,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>102</v>
@@ -4341,7 +4539,7 @@
         <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4359,98 +4557,98 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
